--- a/simulated_data/10nodes_30len_trial5.xlsx
+++ b/simulated_data/10nodes_30len_trial5.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.6357481879092455</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6358176395244789</v>
+        <v>20.84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.85</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="F2" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="H2" t="n">
+        <v>36.145</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22.765</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.183707753390518</v>
+        <v>20.84</v>
       </c>
       <c r="C3" t="n">
-        <v>1.183361376672807</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.545</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.975</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33.375</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.385</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5951985798227559</v>
+        <v>27.85</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5950875702258497</v>
+        <v>4.68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.015000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25.795</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.415</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.112348983674549</v>
+        <v>3.545</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.112247486893431</v>
+        <v>24.62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.955</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.085000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.615</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.765000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22.29</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.386685947648035</v>
+        <v>24.98</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3867192474823199</v>
+        <v>12.545</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.955</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.035</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I6" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21.235</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.54</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.7272696909977164</v>
+        <v>23.71</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7271033208749769</v>
+        <v>14.975</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.085000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.035</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9.515000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18.42</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.01268585237047335</v>
+        <v>36.145</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01259023217078489</v>
+        <v>14.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.015000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34.805</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.915</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.195</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.04890278758541062</v>
+        <v>13.055</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04892851441598398</v>
+        <v>33.375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.795</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19.615</v>
+      </c>
+      <c r="F9" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34.805</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>19.955</v>
+      </c>
+      <c r="K9" t="n">
+        <v>31.705</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7057155885802179</v>
+        <v>12.62</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7056763036007319</v>
+        <v>7.06</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.415</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.765000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.235</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.515000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.915</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19.955</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.55</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>22.765</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>9.385</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.195</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.705</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>24.78</v>
+        <v>20.87</v>
       </c>
       <c r="D2" t="n">
-        <v>25.05</v>
+        <v>24.2</v>
       </c>
       <c r="E2" t="n">
-        <v>5.19</v>
+        <v>4.32</v>
       </c>
       <c r="F2" t="n">
-        <v>29.63</v>
+        <v>29.03</v>
       </c>
       <c r="G2" t="n">
-        <v>17.81</v>
+        <v>11.36</v>
       </c>
       <c r="H2" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
       <c r="I2" t="n">
-        <v>15.12</v>
+        <v>15.67</v>
       </c>
       <c r="J2" t="n">
-        <v>13.31</v>
+        <v>12.41</v>
       </c>
       <c r="K2" t="n">
-        <v>23.24</v>
+        <v>27.34</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.78</v>
+        <v>20.87</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.71</v>
+        <v>5.68</v>
       </c>
       <c r="E3" t="n">
-        <v>19.59</v>
+        <v>17.46</v>
       </c>
       <c r="F3" t="n">
-        <v>12.13</v>
+        <v>12.62</v>
       </c>
       <c r="G3" t="n">
-        <v>12.74</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>10.87</v>
+        <v>13.52</v>
       </c>
       <c r="I3" t="n">
-        <v>28.01</v>
+        <v>19.05</v>
       </c>
       <c r="J3" t="n">
-        <v>11.63</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>9.33</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.05</v>
+        <v>24.2</v>
       </c>
       <c r="C4" t="n">
-        <v>4.71</v>
+        <v>5.68</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.02</v>
+        <v>20.27</v>
       </c>
       <c r="F4" t="n">
-        <v>7.63</v>
+        <v>6.95</v>
       </c>
       <c r="G4" t="n">
-        <v>16.24</v>
+        <v>15.85</v>
       </c>
       <c r="H4" t="n">
-        <v>6.52</v>
+        <v>7.88</v>
       </c>
       <c r="I4" t="n">
-        <v>30.67</v>
+        <v>24.59</v>
       </c>
       <c r="J4" t="n">
-        <v>12.92</v>
+        <v>12.72</v>
       </c>
       <c r="K4" t="n">
-        <v>5.07</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.19</v>
+        <v>4.32</v>
       </c>
       <c r="C5" t="n">
-        <v>19.59</v>
+        <v>17.46</v>
       </c>
       <c r="D5" t="n">
-        <v>20.02</v>
+        <v>20.27</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.05</v>
+        <v>24.81</v>
       </c>
       <c r="G5" t="n">
-        <v>13.41</v>
+        <v>7.15</v>
       </c>
       <c r="H5" t="n">
-        <v>24.81</v>
+        <v>25.01</v>
       </c>
       <c r="I5" t="n">
-        <v>15.42</v>
+        <v>16.61</v>
       </c>
       <c r="J5" t="n">
-        <v>8.140000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="K5" t="n">
-        <v>18.62</v>
+        <v>23.39</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.63</v>
+        <v>29.03</v>
       </c>
       <c r="C6" t="n">
-        <v>12.13</v>
+        <v>12.62</v>
       </c>
       <c r="D6" t="n">
-        <v>7.63</v>
+        <v>6.95</v>
       </c>
       <c r="E6" t="n">
-        <v>25.05</v>
+        <v>24.81</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>23.7</v>
+        <v>18.95</v>
       </c>
       <c r="H6" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="I6" t="n">
-        <v>37.44</v>
+        <v>31.37</v>
       </c>
       <c r="J6" t="n">
-        <v>19.26</v>
+        <v>18.78</v>
       </c>
       <c r="K6" t="n">
-        <v>6.44</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.81</v>
+        <v>11.36</v>
       </c>
       <c r="C7" t="n">
-        <v>12.74</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>16.24</v>
+        <v>15.85</v>
       </c>
       <c r="E7" t="n">
-        <v>13.41</v>
+        <v>7.15</v>
       </c>
       <c r="F7" t="n">
-        <v>23.7</v>
+        <v>18.95</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.72</v>
+        <v>18.94</v>
       </c>
       <c r="I7" t="n">
-        <v>15.68</v>
+        <v>21.63</v>
       </c>
       <c r="J7" t="n">
-        <v>7.66</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>18.49</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
       <c r="C8" t="n">
-        <v>10.87</v>
+        <v>13.52</v>
       </c>
       <c r="D8" t="n">
-        <v>6.52</v>
+        <v>7.88</v>
       </c>
       <c r="E8" t="n">
-        <v>24.81</v>
+        <v>25.01</v>
       </c>
       <c r="F8" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>22.72</v>
+        <v>18.94</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77</v>
+        <v>32.13</v>
       </c>
       <c r="J8" t="n">
-        <v>18.66</v>
+        <v>19.34</v>
       </c>
       <c r="K8" t="n">
-        <v>6.3</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.12</v>
+        <v>15.67</v>
       </c>
       <c r="C9" t="n">
-        <v>28.01</v>
+        <v>19.05</v>
       </c>
       <c r="D9" t="n">
-        <v>30.67</v>
+        <v>24.59</v>
       </c>
       <c r="E9" t="n">
-        <v>15.42</v>
+        <v>16.61</v>
       </c>
       <c r="F9" t="n">
-        <v>37.44</v>
+        <v>31.37</v>
       </c>
       <c r="G9" t="n">
-        <v>15.68</v>
+        <v>21.63</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77</v>
+        <v>32.13</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>18.21</v>
+        <v>13.66</v>
       </c>
       <c r="K9" t="n">
-        <v>31.33</v>
+        <v>27.23</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.31</v>
+        <v>12.41</v>
       </c>
       <c r="C10" t="n">
-        <v>11.63</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>12.92</v>
+        <v>12.72</v>
       </c>
       <c r="E10" t="n">
-        <v>8.140000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="F10" t="n">
-        <v>19.26</v>
+        <v>18.78</v>
       </c>
       <c r="G10" t="n">
-        <v>7.66</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>18.66</v>
+        <v>19.34</v>
       </c>
       <c r="I10" t="n">
-        <v>18.21</v>
+        <v>13.66</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>13.13</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.24</v>
+        <v>27.34</v>
       </c>
       <c r="C11" t="n">
-        <v>9.33</v>
+        <v>8.18</v>
       </c>
       <c r="D11" t="n">
-        <v>5.07</v>
+        <v>3.14</v>
       </c>
       <c r="E11" t="n">
-        <v>18.62</v>
+        <v>23.39</v>
       </c>
       <c r="F11" t="n">
-        <v>6.44</v>
+        <v>5.43</v>
       </c>
       <c r="G11" t="n">
-        <v>18.49</v>
+        <v>18.74</v>
       </c>
       <c r="H11" t="n">
-        <v>6.3</v>
+        <v>6.56</v>
       </c>
       <c r="I11" t="n">
-        <v>31.33</v>
+        <v>27.23</v>
       </c>
       <c r="J11" t="n">
-        <v>13.13</v>
+        <v>15.8</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.28916261813371</v>
+        <v>10.35318251880602</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.100982243987565</v>
+        <v>-12.00026941558194</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.017530334294847</v>
+        <v>9.758259584323538</v>
       </c>
       <c r="C3" t="n">
-        <v>3.549749150422452</v>
+        <v>8.857177389895725</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.462974797523478</v>
+        <v>4.760590945995045</v>
       </c>
       <c r="C4" t="n">
-        <v>7.505827893894618</v>
+        <v>11.547160345571</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.729363633750191</v>
+        <v>7.830466786084343</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.612608078036991</v>
+        <v>-8.492241900336431</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.963438070629397</v>
+        <v>-1.530546332138406</v>
       </c>
       <c r="C6" t="n">
-        <v>14.98715327423101</v>
+        <v>14.48912202609814</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.516933231851058</v>
+        <v>2.191803244924187</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.701717436239058</v>
+        <v>-4.092865755322557</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.059775012469252</v>
+        <v>-2.649425663495868</v>
       </c>
       <c r="C8" t="n">
-        <v>14.01322258268569</v>
+        <v>14.21571768237468</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.586602085803849</v>
+        <v>23.82137677062465</v>
       </c>
       <c r="C9" t="n">
-        <v>-21.46770435512203</v>
+        <v>-3.993699381116953</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.174105636332681</v>
+        <v>10.8836328447531</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.579606752689686</v>
+        <v>0.3949810464141866</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7585825272523971</v>
+        <v>3.898072403841825</v>
       </c>
       <c r="C11" t="n">
-        <v>9.406665964841554</v>
+        <v>14.56848969740684</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>21.19</v>
+        <v>2.57</v>
       </c>
       <c r="D2" t="n">
-        <v>17.7</v>
+        <v>1.74</v>
       </c>
       <c r="E2" t="n">
-        <v>13.41</v>
+        <v>0.67</v>
       </c>
       <c r="F2" t="n">
-        <v>12.07</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
-        <v>12.34</v>
+        <v>0.13</v>
       </c>
       <c r="H2" t="n">
-        <v>9.92</v>
+        <v>0.88</v>
       </c>
       <c r="I2" t="n">
-        <v>7.51</v>
+        <v>0.83</v>
       </c>
       <c r="J2" t="n">
-        <v>19.04</v>
+        <v>0.1</v>
       </c>
       <c r="K2" t="n">
-        <v>20.12</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.19</v>
+        <v>2.57</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.26</v>
+        <v>0.83</v>
       </c>
       <c r="E3" t="n">
-        <v>8.050000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="F3" t="n">
-        <v>20.12</v>
+        <v>1.13</v>
       </c>
       <c r="G3" t="n">
-        <v>11.26</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>28.97</v>
+        <v>1.69</v>
       </c>
       <c r="I3" t="n">
-        <v>26.02</v>
+        <v>1.74</v>
       </c>
       <c r="J3" t="n">
-        <v>19.04</v>
+        <v>2.67</v>
       </c>
       <c r="K3" t="n">
-        <v>17.97</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.7</v>
+        <v>1.74</v>
       </c>
       <c r="C4" t="n">
-        <v>11.26</v>
+        <v>0.83</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.390000000000001</v>
+        <v>2.41</v>
       </c>
       <c r="F4" t="n">
-        <v>10.73</v>
+        <v>0.29</v>
       </c>
       <c r="G4" t="n">
-        <v>15.02</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
-        <v>21.99</v>
+        <v>0.86</v>
       </c>
       <c r="I4" t="n">
-        <v>24.68</v>
+        <v>0.91</v>
       </c>
       <c r="J4" t="n">
-        <v>25.75</v>
+        <v>1.84</v>
       </c>
       <c r="K4" t="n">
-        <v>6.71</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.41</v>
+        <v>0.67</v>
       </c>
       <c r="C5" t="n">
-        <v>8.050000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="D5" t="n">
-        <v>9.390000000000001</v>
+        <v>2.41</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>14.22</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>5.63</v>
+        <v>0.54</v>
       </c>
       <c r="H5" t="n">
-        <v>21.19</v>
+        <v>1.56</v>
       </c>
       <c r="I5" t="n">
-        <v>18.51</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>16.36</v>
+        <v>0.58</v>
       </c>
       <c r="K5" t="n">
-        <v>15.56</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.07</v>
+        <v>1.45</v>
       </c>
       <c r="C6" t="n">
-        <v>20.12</v>
+        <v>1.13</v>
       </c>
       <c r="D6" t="n">
-        <v>10.73</v>
+        <v>0.29</v>
       </c>
       <c r="E6" t="n">
-        <v>14.22</v>
+        <v>2.12</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>17.43</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
-        <v>12.07</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>19.31</v>
+        <v>0.62</v>
       </c>
       <c r="J6" t="n">
-        <v>27.63</v>
+        <v>1.54</v>
       </c>
       <c r="K6" t="n">
-        <v>9.119999999999999</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.34</v>
+        <v>0.13</v>
       </c>
       <c r="C7" t="n">
-        <v>11.26</v>
+        <v>2.7</v>
       </c>
       <c r="D7" t="n">
-        <v>15.02</v>
+        <v>1.87</v>
       </c>
       <c r="E7" t="n">
-        <v>5.63</v>
+        <v>0.54</v>
       </c>
       <c r="F7" t="n">
-        <v>17.43</v>
+        <v>1.58</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>21.73</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
-        <v>15.29</v>
+        <v>0.96</v>
       </c>
       <c r="J7" t="n">
-        <v>10.73</v>
+        <v>0.03</v>
       </c>
       <c r="K7" t="n">
-        <v>20.92</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.92</v>
+        <v>0.88</v>
       </c>
       <c r="C8" t="n">
-        <v>28.97</v>
+        <v>1.69</v>
       </c>
       <c r="D8" t="n">
-        <v>21.99</v>
+        <v>0.86</v>
       </c>
       <c r="E8" t="n">
-        <v>21.19</v>
+        <v>1.56</v>
       </c>
       <c r="F8" t="n">
-        <v>12.07</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>21.73</v>
+        <v>1.01</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13.68</v>
+        <v>0.05</v>
       </c>
       <c r="J8" t="n">
-        <v>28.7</v>
+        <v>0.98</v>
       </c>
       <c r="K8" t="n">
-        <v>20.92</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.51</v>
+        <v>0.83</v>
       </c>
       <c r="C9" t="n">
-        <v>26.02</v>
+        <v>1.74</v>
       </c>
       <c r="D9" t="n">
-        <v>24.68</v>
+        <v>0.91</v>
       </c>
       <c r="E9" t="n">
-        <v>18.51</v>
+        <v>1.5</v>
       </c>
       <c r="F9" t="n">
-        <v>19.31</v>
+        <v>0.62</v>
       </c>
       <c r="G9" t="n">
-        <v>15.29</v>
+        <v>0.96</v>
       </c>
       <c r="H9" t="n">
-        <v>13.68</v>
+        <v>0.05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>17.43</v>
+        <v>0.93</v>
       </c>
       <c r="K9" t="n">
-        <v>27.63</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.04</v>
+        <v>0.1</v>
       </c>
       <c r="C10" t="n">
-        <v>19.04</v>
+        <v>2.67</v>
       </c>
       <c r="D10" t="n">
-        <v>25.75</v>
+        <v>1.84</v>
       </c>
       <c r="E10" t="n">
-        <v>16.36</v>
+        <v>0.58</v>
       </c>
       <c r="F10" t="n">
-        <v>27.63</v>
+        <v>1.54</v>
       </c>
       <c r="G10" t="n">
-        <v>10.73</v>
+        <v>0.03</v>
       </c>
       <c r="H10" t="n">
-        <v>28.7</v>
+        <v>0.98</v>
       </c>
       <c r="I10" t="n">
-        <v>17.43</v>
+        <v>0.93</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>31.65</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.12</v>
+        <v>2.31</v>
       </c>
       <c r="C11" t="n">
-        <v>17.97</v>
+        <v>0.26</v>
       </c>
       <c r="D11" t="n">
-        <v>6.71</v>
+        <v>0.57</v>
       </c>
       <c r="E11" t="n">
-        <v>15.56</v>
+        <v>2.99</v>
       </c>
       <c r="F11" t="n">
-        <v>9.119999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="G11" t="n">
-        <v>20.92</v>
+        <v>2.44</v>
       </c>
       <c r="H11" t="n">
-        <v>20.92</v>
+        <v>1.43</v>
       </c>
       <c r="I11" t="n">
-        <v>27.63</v>
+        <v>1.48</v>
       </c>
       <c r="J11" t="n">
-        <v>31.65</v>
+        <v>2.41</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1689885807704905</v>
+        <v>-0.6357481879092455</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.233895714095355</v>
+        <v>-0.6358176395244789</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4068316594737003</v>
+        <v>1.183707753390518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3098187383635342</v>
+        <v>1.183361376672807</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003841490993540468</v>
+        <v>0.5951985798227559</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4068645061685831</v>
+        <v>0.5950875702258497</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1875553804895752</v>
+        <v>-1.112348983674549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1114351543431481</v>
+        <v>-1.112247486893431</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3324429256981342</v>
+        <v>0.386685947648035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.184527822034251</v>
+        <v>0.3867192474823199</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2633745857221647</v>
+        <v>-0.7272696909977164</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.08554196666842008</v>
+        <v>-0.7271033208749769</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5355079014885933</v>
+        <v>-0.01268585237047335</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2115194933817363</v>
+        <v>-0.01259023217078489</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1147012509240718</v>
+        <v>-0.04890278758541062</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5069994537239054</v>
+        <v>-0.04892851441598398</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5226208221423482</v>
+        <v>-0.7057155885802179</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3951714810294646</v>
+        <v>-0.7056763036007319</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2327247302068903</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5116958588802726</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>27.9</v>
+        <v>21.38</v>
       </c>
       <c r="D2" t="n">
-        <v>26.84</v>
+        <v>24.53</v>
       </c>
       <c r="E2" t="n">
-        <v>3.85</v>
+        <v>5.73</v>
       </c>
       <c r="F2" t="n">
-        <v>23.68</v>
+        <v>31.13</v>
       </c>
       <c r="G2" t="n">
-        <v>13.52</v>
+        <v>17.01</v>
       </c>
       <c r="H2" t="n">
-        <v>24.63</v>
+        <v>30.99</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04</v>
+        <v>15.98</v>
       </c>
       <c r="J2" t="n">
-        <v>13.8</v>
+        <v>11.83</v>
       </c>
       <c r="K2" t="n">
-        <v>22.34</v>
+        <v>25.77</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.9</v>
+        <v>21.38</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.49</v>
+        <v>5.63</v>
       </c>
       <c r="E3" t="n">
-        <v>25.46</v>
+        <v>17.42</v>
       </c>
       <c r="F3" t="n">
-        <v>7.59</v>
+        <v>11.01</v>
       </c>
       <c r="G3" t="n">
-        <v>23.51</v>
+        <v>17.96</v>
       </c>
       <c r="H3" t="n">
-        <v>8.220000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="I3" t="n">
-        <v>23.82</v>
+        <v>30.45</v>
       </c>
       <c r="J3" t="n">
-        <v>14.14</v>
+        <v>10.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.58</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.84</v>
+        <v>24.53</v>
       </c>
       <c r="C4" t="n">
-        <v>3.49</v>
+        <v>5.63</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.05</v>
+        <v>19.71</v>
       </c>
       <c r="F4" t="n">
-        <v>4.45</v>
+        <v>6.6</v>
       </c>
       <c r="G4" t="n">
-        <v>20.95</v>
+        <v>16.66</v>
       </c>
       <c r="H4" t="n">
-        <v>4.83</v>
+        <v>6.81</v>
       </c>
       <c r="I4" t="n">
-        <v>21.54</v>
+        <v>30.79</v>
       </c>
       <c r="J4" t="n">
-        <v>13.1</v>
+        <v>12.76</v>
       </c>
       <c r="K4" t="n">
-        <v>5.14</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.85</v>
+        <v>5.73</v>
       </c>
       <c r="C5" t="n">
-        <v>25.46</v>
+        <v>17.42</v>
       </c>
       <c r="D5" t="n">
-        <v>24.05</v>
+        <v>19.71</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>20.57</v>
+        <v>26.27</v>
       </c>
       <c r="G5" t="n">
-        <v>9.74</v>
+        <v>11.52</v>
       </c>
       <c r="H5" t="n">
-        <v>21.43</v>
+        <v>25.87</v>
       </c>
       <c r="I5" t="n">
-        <v>7.28</v>
+        <v>14.8</v>
       </c>
       <c r="J5" t="n">
-        <v>11.38</v>
+        <v>7.05</v>
       </c>
       <c r="K5" t="n">
-        <v>19.88</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.68</v>
+        <v>31.13</v>
       </c>
       <c r="C6" t="n">
-        <v>7.59</v>
+        <v>11.01</v>
       </c>
       <c r="D6" t="n">
-        <v>4.45</v>
+        <v>6.6</v>
       </c>
       <c r="E6" t="n">
-        <v>20.57</v>
+        <v>26.27</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>16.62</v>
+        <v>22</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
-        <v>17.36</v>
+        <v>36.67</v>
       </c>
       <c r="J6" t="n">
-        <v>10.47</v>
+        <v>19.35</v>
       </c>
       <c r="K6" t="n">
-        <v>5.35</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.52</v>
+        <v>17.01</v>
       </c>
       <c r="C7" t="n">
-        <v>23.51</v>
+        <v>17.96</v>
       </c>
       <c r="D7" t="n">
-        <v>20.95</v>
+        <v>16.66</v>
       </c>
       <c r="E7" t="n">
-        <v>9.74</v>
+        <v>11.52</v>
       </c>
       <c r="F7" t="n">
-        <v>16.62</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.86</v>
+        <v>20.51</v>
       </c>
       <c r="I7" t="n">
-        <v>2.47</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>12.43</v>
+        <v>10.71</v>
       </c>
       <c r="K7" t="n">
-        <v>18.57</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.63</v>
+        <v>30.99</v>
       </c>
       <c r="C8" t="n">
-        <v>8.220000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="D8" t="n">
-        <v>4.83</v>
+        <v>6.81</v>
       </c>
       <c r="E8" t="n">
-        <v>21.43</v>
+        <v>25.87</v>
       </c>
       <c r="F8" t="n">
-        <v>1.41</v>
+        <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>16.86</v>
+        <v>20.51</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>17.79</v>
+        <v>35.39</v>
       </c>
       <c r="J8" t="n">
-        <v>11.67</v>
+        <v>19.16</v>
       </c>
       <c r="K8" t="n">
-        <v>6.69</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.04</v>
+        <v>15.98</v>
       </c>
       <c r="C9" t="n">
-        <v>23.82</v>
+        <v>30.45</v>
       </c>
       <c r="D9" t="n">
-        <v>21.54</v>
+        <v>30.79</v>
       </c>
       <c r="E9" t="n">
-        <v>7.28</v>
+        <v>14.8</v>
       </c>
       <c r="F9" t="n">
-        <v>17.36</v>
+        <v>36.67</v>
       </c>
       <c r="G9" t="n">
-        <v>2.47</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>17.79</v>
+        <v>35.39</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.58</v>
+        <v>20.3</v>
       </c>
       <c r="K9" t="n">
-        <v>18.61</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8</v>
+        <v>11.83</v>
       </c>
       <c r="C10" t="n">
-        <v>14.14</v>
+        <v>10.5</v>
       </c>
       <c r="D10" t="n">
-        <v>13.1</v>
+        <v>12.76</v>
       </c>
       <c r="E10" t="n">
-        <v>11.38</v>
+        <v>7.05</v>
       </c>
       <c r="F10" t="n">
-        <v>10.47</v>
+        <v>19.35</v>
       </c>
       <c r="G10" t="n">
-        <v>12.43</v>
+        <v>10.71</v>
       </c>
       <c r="H10" t="n">
-        <v>11.67</v>
+        <v>19.16</v>
       </c>
       <c r="I10" t="n">
-        <v>11.58</v>
+        <v>20.3</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.56</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.34</v>
+        <v>25.77</v>
       </c>
       <c r="C11" t="n">
-        <v>5.58</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>5.14</v>
+        <v>4.39</v>
       </c>
       <c r="E11" t="n">
-        <v>19.88</v>
+        <v>20.44</v>
       </c>
       <c r="F11" t="n">
-        <v>5.35</v>
+        <v>7.27</v>
       </c>
       <c r="G11" t="n">
-        <v>18.57</v>
+        <v>14.78</v>
       </c>
       <c r="H11" t="n">
-        <v>6.69</v>
+        <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>18.61</v>
+        <v>29.61</v>
       </c>
       <c r="J11" t="n">
-        <v>8.56</v>
+        <v>14.04</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.260823676098068</v>
+        <v>14.16333452346779</v>
       </c>
       <c r="C2" t="n">
-        <v>-15.0220190030656</v>
+        <v>8.223767858960834</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.59211418869321</v>
+        <v>1.456788858361261</v>
       </c>
       <c r="C3" t="n">
-        <v>7.935493092136478</v>
+        <v>-8.969159293717562</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.196388392632005</v>
+        <v>-4.114933804125554</v>
       </c>
       <c r="C4" t="n">
-        <v>8.750191205242995</v>
+        <v>-8.141196527709409</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.123310450240257</v>
+        <v>8.579195036086748</v>
       </c>
       <c r="C5" t="n">
-        <v>-11.26853890886028</v>
+        <v>6.930418088351776</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.04638286608537</v>
+        <v>-8.906557829110342</v>
       </c>
       <c r="C6" t="n">
-        <v>7.14957490536001</v>
+        <v>-12.6751575589912</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-10.4525872528745</v>
+        <v>-2.840455244624892</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.54381427326857</v>
+        <v>8.467686675820685</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.382880870321471</v>
+        <v>-10.47125446265276</v>
       </c>
       <c r="C8" t="n">
-        <v>8.395857140757048</v>
+        <v>-10.57469287674323</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-9.518044743298097</v>
+        <v>4.953090877231652</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.832196449881616</v>
+        <v>21.27949046009536</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.957736057097154</v>
+        <v>4.813981036828493</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.261761018114526</v>
+        <v>0.9756708706600566</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.064258631893219</v>
+        <v>-7.633188991462394</v>
       </c>
       <c r="C11" t="n">
-        <v>3.61349081715573</v>
+        <v>-5.51682769672732</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0002062320709228516</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002028942108154297</v>
+        <v>20.07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4196844100952148</v>
+        <v>24.14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9648745059967041</v>
+        <v>6.51</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09917116165161133</v>
+        <v>30.65</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02713823318481445</v>
+        <v>14.65</v>
       </c>
       <c r="H2" t="n">
-        <v>1.293713569641113</v>
+        <v>28.21</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="I6" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="J6" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="K9" t="n">
+        <v>29.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>18.44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-0.3443038001262566</v>
       </c>
       <c r="C2" t="n">
-        <v>20.23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.294642857142857</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.391111111111111</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2115172681462733</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0002062320709228516</v>
+        <v>0.4686169538692838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.03833852017539258</v>
       </c>
       <c r="C3" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.924512987012987</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.656888888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.169834295440048</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0002028942108154297</v>
+        <v>-0.2073957397729367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.1155341660826335</v>
       </c>
       <c r="C4" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.019971469329529</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5.41511111111111</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3059726693750627</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4196844100952148</v>
+        <v>-0.295315721415965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.3374166863798402</v>
       </c>
       <c r="C5" t="n">
-        <v>37.43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.998665955176094</v>
-      </c>
-      <c r="E5" t="n">
-        <v>15.70444444444444</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8973203265839023</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9648745059967041</v>
+        <v>0.2284291665304397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.1976619058058535</v>
       </c>
       <c r="C6" t="n">
-        <v>7.080000000000002</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.988505747126437</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.834888888888889</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1549459139401988</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.09917116165161133</v>
+        <v>-0.5245914836971685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.1579462679564266</v>
       </c>
       <c r="C7" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.142857142857144</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8.340666666666666</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8643680870173425</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.02713823318481445</v>
+        <v>0.2788719185379289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-0.03567344160386322</v>
       </c>
       <c r="C8" t="n">
-        <v>19.69</v>
+        <v>-0.5258111142865552</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1113572614482139</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7724891517977699</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1815320995874142</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07593425023201922</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3870611446056058</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.295819723363746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="H2" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8308219178082191</v>
+        <v>6.05</v>
       </c>
       <c r="E8" t="n">
-        <v>5.251333333333335</v>
+        <v>21.89</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3027130426930947</v>
+        <v>1.08</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>20.62</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.293713569641113</v>
+        <v>31.71</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-7.035005488530428</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-12.99737858275337</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.60988377786341</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.04680374591433</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.288617998199543</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.542685686199608</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-3.690976874222291</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-10.28972747576628</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.64815191346998</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.699772432760108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-6.498500471120726</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.730286818007062</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13.05492391513752</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.802689891926532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-18.55451084372841</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.227961970600348</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.08374884619492479</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.5131477107940552</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.518338929250459</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.857912259707248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J2" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I6" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="J8" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="H10" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3755920220853288</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1697560965201572</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1564407948393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.4696046698928434</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2723891186778049</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.3081753119580882</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3402259326571581</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2257515090613569</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4305375088382631</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3964033724955117</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1875613708845924</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.09593004076178346</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3828385138441891</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3548738318138439</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.4090935346354347</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.266606378548479</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1967867947291703</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.4886305170462139</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2670537187943858</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.05105064878069677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="J2" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.83</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E8" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32.83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="K9" t="n">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="I11" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>33.32925258485666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.06927112102039221</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-16.52934788270668</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.551495108780286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-23.7203789127946</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.62516010274683</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24.97361894185351</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.956631126155669</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-32.58334724189024</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.799842279151184</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.77061559378781</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.625328934215766</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-29.30366626958374</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.288530405604586</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>43.01645066995082</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.50687972980365</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.041601820243846</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-17.13365517480936</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-20.99479930371733</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.227746911128095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0004780292510986328</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002753734588623047</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0003092288970947266</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.779943227767944</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.657115459442139</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4983034133911133</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4112615585327148</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.889832973480225</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0525355339050293</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.02327752113342285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>21.25</v>
+        <v>23.12</v>
       </c>
       <c r="D2" t="n">
-        <v>22.78</v>
+        <v>23.32</v>
       </c>
       <c r="E2" t="n">
-        <v>4.07</v>
+        <v>4.69</v>
       </c>
       <c r="F2" t="n">
-        <v>27.87</v>
+        <v>19.68</v>
       </c>
       <c r="G2" t="n">
-        <v>28.27</v>
+        <v>17.15</v>
       </c>
       <c r="H2" t="n">
-        <v>26.24</v>
+        <v>20.2</v>
       </c>
       <c r="I2" t="n">
-        <v>10.65</v>
+        <v>17.16</v>
       </c>
       <c r="J2" t="n">
-        <v>16.53</v>
+        <v>13.72</v>
       </c>
       <c r="K2" t="n">
-        <v>22.44</v>
+        <v>24.47</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.43</v>
+        <v>23.12</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.89</v>
+        <v>5.39</v>
       </c>
       <c r="E3" t="n">
-        <v>19.09</v>
+        <v>20.2</v>
       </c>
       <c r="F3" t="n">
-        <v>14.63</v>
+        <v>10.92</v>
       </c>
       <c r="G3" t="n">
-        <v>14.41</v>
+        <v>19.08</v>
       </c>
       <c r="H3" t="n">
-        <v>17.2</v>
+        <v>12.37</v>
       </c>
       <c r="I3" t="n">
-        <v>25.8</v>
+        <v>15.43</v>
       </c>
       <c r="J3" t="n">
-        <v>9.59</v>
+        <v>9.41</v>
       </c>
       <c r="K3" t="n">
-        <v>8.91</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.92</v>
+        <v>23.32</v>
       </c>
       <c r="C4" t="n">
-        <v>4.47</v>
+        <v>5.39</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>19.75</v>
+        <v>19.58</v>
       </c>
       <c r="F4" t="n">
-        <v>6.14</v>
+        <v>6.61</v>
       </c>
       <c r="G4" t="n">
-        <v>15.84</v>
+        <v>15.24</v>
       </c>
       <c r="H4" t="n">
-        <v>5.97</v>
+        <v>7.8</v>
       </c>
       <c r="I4" t="n">
-        <v>25.6</v>
+        <v>19.53</v>
       </c>
       <c r="J4" t="n">
-        <v>12.62</v>
+        <v>10.36</v>
       </c>
       <c r="K4" t="n">
-        <v>4.88</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.02</v>
+        <v>4.69</v>
       </c>
       <c r="C5" t="n">
-        <v>30.15</v>
+        <v>20.2</v>
       </c>
       <c r="D5" t="n">
-        <v>23.11</v>
+        <v>19.58</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.4</v>
+        <v>15.31</v>
       </c>
       <c r="G5" t="n">
-        <v>9.31</v>
+        <v>12.52</v>
       </c>
       <c r="H5" t="n">
-        <v>17.19</v>
+        <v>15.71</v>
       </c>
       <c r="I5" t="n">
-        <v>17.58</v>
+        <v>17.68</v>
       </c>
       <c r="J5" t="n">
-        <v>5.53</v>
+        <v>10.98</v>
       </c>
       <c r="K5" t="n">
-        <v>24.88</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.09</v>
+        <v>19.68</v>
       </c>
       <c r="C6" t="n">
-        <v>10.46</v>
+        <v>10.92</v>
       </c>
       <c r="D6" t="n">
-        <v>5.16</v>
+        <v>6.61</v>
       </c>
       <c r="E6" t="n">
-        <v>26.51</v>
+        <v>15.31</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.08</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09</v>
+        <v>1.54</v>
       </c>
       <c r="I6" t="n">
-        <v>48.33</v>
+        <v>21.23</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61</v>
+        <v>9.76</v>
       </c>
       <c r="K6" t="n">
-        <v>7.51</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.15</v>
+        <v>17.15</v>
       </c>
       <c r="C7" t="n">
-        <v>15.54</v>
+        <v>19.08</v>
       </c>
       <c r="D7" t="n">
-        <v>20.78</v>
+        <v>15.24</v>
       </c>
       <c r="E7" t="n">
-        <v>6.86</v>
+        <v>12.52</v>
       </c>
       <c r="F7" t="n">
-        <v>19.99</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>23.18</v>
+        <v>7.68</v>
       </c>
       <c r="I7" t="n">
-        <v>15.19</v>
+        <v>25.49</v>
       </c>
       <c r="J7" t="n">
-        <v>7.95</v>
+        <v>14.16</v>
       </c>
       <c r="K7" t="n">
-        <v>19.62</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>46.05</v>
+        <v>20.2</v>
       </c>
       <c r="C8" t="n">
-        <v>11.6</v>
+        <v>12.37</v>
       </c>
       <c r="D8" t="n">
-        <v>8.06</v>
+        <v>7.8</v>
       </c>
       <c r="E8" t="n">
-        <v>22.75</v>
+        <v>15.71</v>
       </c>
       <c r="F8" t="n">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="G8" t="n">
-        <v>16.22</v>
+        <v>7.68</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>33.37</v>
+        <v>22.65</v>
       </c>
       <c r="J8" t="n">
-        <v>17.46</v>
+        <v>11.09</v>
       </c>
       <c r="K8" t="n">
-        <v>8.779999999999999</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.46</v>
+        <v>17.16</v>
       </c>
       <c r="C9" t="n">
-        <v>40.95</v>
+        <v>15.43</v>
       </c>
       <c r="D9" t="n">
-        <v>25.99</v>
+        <v>19.53</v>
       </c>
       <c r="E9" t="n">
-        <v>21.65</v>
+        <v>17.68</v>
       </c>
       <c r="F9" t="n">
-        <v>37.47</v>
+        <v>21.23</v>
       </c>
       <c r="G9" t="n">
-        <v>13.85</v>
+        <v>25.49</v>
       </c>
       <c r="H9" t="n">
-        <v>36.24</v>
+        <v>22.65</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>26.24</v>
+        <v>11.71</v>
       </c>
       <c r="K9" t="n">
-        <v>15.08</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.710000000000001</v>
+        <v>13.72</v>
       </c>
       <c r="C10" t="n">
-        <v>4.53</v>
+        <v>9.41</v>
       </c>
       <c r="D10" t="n">
-        <v>10.21</v>
+        <v>10.36</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>10.98</v>
       </c>
       <c r="F10" t="n">
-        <v>21.86</v>
+        <v>9.76</v>
       </c>
       <c r="G10" t="n">
-        <v>11.08</v>
+        <v>14.16</v>
       </c>
       <c r="H10" t="n">
-        <v>20.37</v>
+        <v>11.09</v>
       </c>
       <c r="I10" t="n">
-        <v>13.67</v>
+        <v>11.71</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>24.08</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.09</v>
+        <v>24.47</v>
       </c>
       <c r="C11" t="n">
-        <v>9.859999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="D11" t="n">
-        <v>5.12</v>
+        <v>3.63</v>
       </c>
       <c r="E11" t="n">
-        <v>19.7</v>
+        <v>20.33</v>
       </c>
       <c r="F11" t="n">
-        <v>5.57</v>
+        <v>5.41</v>
       </c>
       <c r="G11" t="n">
-        <v>17.22</v>
+        <v>13.62</v>
       </c>
       <c r="H11" t="n">
-        <v>7.61</v>
+        <v>5.95</v>
       </c>
       <c r="I11" t="n">
-        <v>48.33</v>
+        <v>22.76</v>
       </c>
       <c r="J11" t="n">
-        <v>11.02</v>
+        <v>12.61</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11.98289048850096</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.480427813810476</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-6.511540905144245</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.399953135039049</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.942532408872552</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.442877692680964</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.46325364071382</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.823657808185369</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.671323411033819</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.357031243091603</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.28232598877232</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.665247514940891</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.798691376819957</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.399280684629</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5.116708266846662</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-10.96770054695557</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.144124101371248</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.07320318866516</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8161989440740219</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.38110854481103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.294642857142857</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.391111111111111</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2115172681462733</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0002062320709228516</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.924512987012987</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.656888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.169834295440048</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0002028942108154297</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.019971469329529</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.41511111111111</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3059726693750627</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4196844100952148</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.998665955176094</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.70444444444444</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8973203265839023</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9648745059967041</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7.080000000000002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.988505747126437</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.834888888888889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1549459139401988</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.09917116165161133</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.142857142857144</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.340666666666666</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8643680870173425</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02713823318481445</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8308219178082191</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.251333333333335</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3027130426930947</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.293713569641113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>20.84</v>
+        <v>21.25</v>
       </c>
       <c r="D2" t="n">
-        <v>27.85</v>
+        <v>22.78</v>
       </c>
       <c r="E2" t="n">
-        <v>3.545</v>
+        <v>4.07</v>
       </c>
       <c r="F2" t="n">
-        <v>24.98</v>
+        <v>27.87</v>
       </c>
       <c r="G2" t="n">
-        <v>23.71</v>
+        <v>28.27</v>
       </c>
       <c r="H2" t="n">
-        <v>36.145</v>
+        <v>26.24</v>
       </c>
       <c r="I2" t="n">
-        <v>13.055</v>
+        <v>10.65</v>
       </c>
       <c r="J2" t="n">
-        <v>12.62</v>
+        <v>16.53</v>
       </c>
       <c r="K2" t="n">
-        <v>22.765</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.84</v>
+        <v>20.43</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.68</v>
+        <v>4.89</v>
       </c>
       <c r="E3" t="n">
-        <v>24.62</v>
+        <v>19.09</v>
       </c>
       <c r="F3" t="n">
-        <v>12.545</v>
+        <v>14.63</v>
       </c>
       <c r="G3" t="n">
-        <v>14.975</v>
+        <v>14.41</v>
       </c>
       <c r="H3" t="n">
-        <v>14.4</v>
+        <v>17.2</v>
       </c>
       <c r="I3" t="n">
-        <v>33.375</v>
+        <v>25.8</v>
       </c>
       <c r="J3" t="n">
-        <v>7.06</v>
+        <v>9.59</v>
       </c>
       <c r="K3" t="n">
-        <v>9.385</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.85</v>
+        <v>32.92</v>
       </c>
       <c r="C4" t="n">
-        <v>4.68</v>
+        <v>4.47</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>21.43</v>
+        <v>19.75</v>
       </c>
       <c r="F4" t="n">
-        <v>5.65</v>
+        <v>6.14</v>
       </c>
       <c r="G4" t="n">
-        <v>18.31</v>
+        <v>15.84</v>
       </c>
       <c r="H4" t="n">
-        <v>7.015000000000001</v>
+        <v>5.97</v>
       </c>
       <c r="I4" t="n">
-        <v>25.795</v>
+        <v>25.6</v>
       </c>
       <c r="J4" t="n">
-        <v>11.415</v>
+        <v>12.62</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.545</v>
+        <v>3.02</v>
       </c>
       <c r="C5" t="n">
-        <v>24.62</v>
+        <v>30.15</v>
       </c>
       <c r="D5" t="n">
-        <v>21.43</v>
+        <v>23.11</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.955</v>
+        <v>25.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.085000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="H5" t="n">
-        <v>19.97</v>
+        <v>17.19</v>
       </c>
       <c r="I5" t="n">
-        <v>19.615</v>
+        <v>17.58</v>
       </c>
       <c r="J5" t="n">
-        <v>6.765000000000001</v>
+        <v>5.53</v>
       </c>
       <c r="K5" t="n">
-        <v>22.29</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.98</v>
+        <v>22.09</v>
       </c>
       <c r="C6" t="n">
-        <v>12.545</v>
+        <v>10.46</v>
       </c>
       <c r="D6" t="n">
-        <v>5.65</v>
+        <v>5.16</v>
       </c>
       <c r="E6" t="n">
-        <v>25.955</v>
+        <v>26.51</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.035</v>
+        <v>24.08</v>
       </c>
       <c r="H6" t="n">
-        <v>1.085</v>
+        <v>1.09</v>
       </c>
       <c r="I6" t="n">
-        <v>42.9</v>
+        <v>48.33</v>
       </c>
       <c r="J6" t="n">
-        <v>21.235</v>
+        <v>20.61</v>
       </c>
       <c r="K6" t="n">
-        <v>6.54</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.71</v>
+        <v>19.15</v>
       </c>
       <c r="C7" t="n">
-        <v>14.975</v>
+        <v>15.54</v>
       </c>
       <c r="D7" t="n">
-        <v>18.31</v>
+        <v>20.78</v>
       </c>
       <c r="E7" t="n">
-        <v>8.085000000000001</v>
+        <v>6.86</v>
       </c>
       <c r="F7" t="n">
-        <v>22.035</v>
+        <v>19.99</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19.7</v>
+        <v>23.18</v>
       </c>
       <c r="I7" t="n">
-        <v>14.52</v>
+        <v>15.19</v>
       </c>
       <c r="J7" t="n">
-        <v>9.515000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="K7" t="n">
-        <v>18.42</v>
+        <v>19.62</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.145</v>
+        <v>46.05</v>
       </c>
       <c r="C8" t="n">
-        <v>14.4</v>
+        <v>11.6</v>
       </c>
       <c r="D8" t="n">
-        <v>7.015000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="E8" t="n">
-        <v>19.97</v>
+        <v>22.75</v>
       </c>
       <c r="F8" t="n">
-        <v>1.085</v>
+        <v>1.08</v>
       </c>
       <c r="G8" t="n">
-        <v>19.7</v>
+        <v>16.22</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.805</v>
+        <v>33.37</v>
       </c>
       <c r="J8" t="n">
-        <v>18.915</v>
+        <v>17.46</v>
       </c>
       <c r="K8" t="n">
-        <v>8.195</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.055</v>
+        <v>15.46</v>
       </c>
       <c r="C9" t="n">
-        <v>33.375</v>
+        <v>40.95</v>
       </c>
       <c r="D9" t="n">
-        <v>25.795</v>
+        <v>25.99</v>
       </c>
       <c r="E9" t="n">
-        <v>19.615</v>
+        <v>21.65</v>
       </c>
       <c r="F9" t="n">
-        <v>42.9</v>
+        <v>37.47</v>
       </c>
       <c r="G9" t="n">
-        <v>14.52</v>
+        <v>13.85</v>
       </c>
       <c r="H9" t="n">
-        <v>34.805</v>
+        <v>36.24</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.955</v>
+        <v>26.24</v>
       </c>
       <c r="K9" t="n">
-        <v>31.705</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.62</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>7.06</v>
+        <v>4.53</v>
       </c>
       <c r="D10" t="n">
-        <v>11.415</v>
+        <v>10.21</v>
       </c>
       <c r="E10" t="n">
-        <v>6.765000000000001</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>21.235</v>
+        <v>21.86</v>
       </c>
       <c r="G10" t="n">
-        <v>9.515000000000001</v>
+        <v>11.08</v>
       </c>
       <c r="H10" t="n">
-        <v>18.915</v>
+        <v>20.37</v>
       </c>
       <c r="I10" t="n">
-        <v>19.955</v>
+        <v>13.67</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.55</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.765</v>
+        <v>23.09</v>
       </c>
       <c r="C11" t="n">
-        <v>9.385</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>5.12</v>
       </c>
       <c r="E11" t="n">
-        <v>22.29</v>
+        <v>19.7</v>
       </c>
       <c r="F11" t="n">
-        <v>6.54</v>
+        <v>5.57</v>
       </c>
       <c r="G11" t="n">
-        <v>18.42</v>
+        <v>17.22</v>
       </c>
       <c r="H11" t="n">
-        <v>8.195</v>
+        <v>7.61</v>
       </c>
       <c r="I11" t="n">
-        <v>31.705</v>
+        <v>48.33</v>
       </c>
       <c r="J11" t="n">
-        <v>17.55</v>
+        <v>11.02</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23.12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.47</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>23.12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="G3" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19.53</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="H5" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="K5" t="n">
-        <v>20.33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="E6" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I6" t="n">
-        <v>21.23</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="C7" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="K7" t="n">
-        <v>13.62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="D9" t="n">
-        <v>19.53</v>
-      </c>
-      <c r="E9" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F9" t="n">
-        <v>21.23</v>
-      </c>
-      <c r="G9" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="H9" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="K9" t="n">
-        <v>22.76</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="H10" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>12.61</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>24.47</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="E11" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="I11" t="n">
-        <v>22.76</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>11.98289048850096</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-9.480427813810476</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-6.511540905144245</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.399953135039049</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.942532408872552</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.442877692680964</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11.46325364071382</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-4.823657808185369</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.671323411033819</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.357031243091603</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12.28232598877232</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.665247514940891</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4.798691376819957</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.399280684629</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5.116708266846662</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-10.96770054695557</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.144124101371248</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-1.07320318866516</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.8161989440740219</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.38110854481103</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.57</v>
+        <v>20.84</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74</v>
+        <v>27.39</v>
       </c>
       <c r="E2" t="n">
-        <v>0.67</v>
+        <v>3.51</v>
       </c>
       <c r="F2" t="n">
-        <v>1.45</v>
+        <v>24.81</v>
       </c>
       <c r="G2" t="n">
-        <v>0.13</v>
+        <v>23.27</v>
       </c>
       <c r="H2" t="n">
-        <v>0.88</v>
+        <v>34.76</v>
       </c>
       <c r="I2" t="n">
-        <v>0.83</v>
+        <v>12.83</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>2.31</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.57</v>
+        <v>20.84</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>4.67</v>
       </c>
       <c r="E3" t="n">
-        <v>3.25</v>
+        <v>23.99</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13</v>
+        <v>12.37</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>14.97</v>
       </c>
       <c r="H3" t="n">
-        <v>1.69</v>
+        <v>14.12</v>
       </c>
       <c r="I3" t="n">
-        <v>1.74</v>
+        <v>32.51</v>
       </c>
       <c r="J3" t="n">
-        <v>2.67</v>
+        <v>6.59</v>
       </c>
       <c r="K3" t="n">
-        <v>0.26</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.74</v>
+        <v>27.39</v>
       </c>
       <c r="C4" t="n">
-        <v>0.83</v>
+        <v>4.67</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.41</v>
+        <v>21.36</v>
       </c>
       <c r="F4" t="n">
-        <v>0.29</v>
+        <v>5.63</v>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>18.14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.86</v>
+        <v>6.93</v>
       </c>
       <c r="I4" t="n">
-        <v>0.91</v>
+        <v>25.79</v>
       </c>
       <c r="J4" t="n">
-        <v>1.84</v>
+        <v>11.36</v>
       </c>
       <c r="K4" t="n">
-        <v>0.57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.67</v>
+        <v>3.51</v>
       </c>
       <c r="C5" t="n">
-        <v>3.25</v>
+        <v>23.99</v>
       </c>
       <c r="D5" t="n">
-        <v>2.41</v>
+        <v>21.36</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>25.95</v>
       </c>
       <c r="G5" t="n">
-        <v>0.54</v>
+        <v>7.99</v>
       </c>
       <c r="H5" t="n">
-        <v>1.56</v>
+        <v>19.77</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>19.51</v>
       </c>
       <c r="J5" t="n">
-        <v>0.58</v>
+        <v>6.65</v>
       </c>
       <c r="K5" t="n">
-        <v>2.99</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.45</v>
+        <v>24.81</v>
       </c>
       <c r="C6" t="n">
-        <v>1.13</v>
+        <v>12.37</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29</v>
+        <v>5.63</v>
       </c>
       <c r="E6" t="n">
-        <v>2.12</v>
+        <v>25.95</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58</v>
+        <v>21.94</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="I6" t="n">
-        <v>0.62</v>
+        <v>42.55</v>
       </c>
       <c r="J6" t="n">
-        <v>1.54</v>
+        <v>21.23</v>
       </c>
       <c r="K6" t="n">
-        <v>0.87</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.13</v>
+        <v>23.27</v>
       </c>
       <c r="C7" t="n">
-        <v>2.7</v>
+        <v>14.97</v>
       </c>
       <c r="D7" t="n">
-        <v>1.87</v>
+        <v>18.14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.54</v>
+        <v>7.99</v>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>21.94</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01</v>
+        <v>19.39</v>
       </c>
       <c r="I7" t="n">
-        <v>0.96</v>
+        <v>14.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>2.44</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.88</v>
+        <v>34.76</v>
       </c>
       <c r="C8" t="n">
-        <v>1.69</v>
+        <v>14.12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86</v>
+        <v>6.93</v>
       </c>
       <c r="E8" t="n">
-        <v>1.56</v>
+        <v>19.77</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="G8" t="n">
-        <v>1.01</v>
+        <v>19.39</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05</v>
+        <v>34.77</v>
       </c>
       <c r="J8" t="n">
-        <v>0.98</v>
+        <v>18.86</v>
       </c>
       <c r="K8" t="n">
-        <v>1.43</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.83</v>
+        <v>12.83</v>
       </c>
       <c r="C9" t="n">
-        <v>1.74</v>
+        <v>32.51</v>
       </c>
       <c r="D9" t="n">
-        <v>0.91</v>
+        <v>25.79</v>
       </c>
       <c r="E9" t="n">
-        <v>1.5</v>
+        <v>19.51</v>
       </c>
       <c r="F9" t="n">
-        <v>0.62</v>
+        <v>42.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0.96</v>
+        <v>14.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05</v>
+        <v>34.77</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.93</v>
+        <v>18.94</v>
       </c>
       <c r="K9" t="n">
-        <v>1.48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>2.67</v>
+        <v>6.59</v>
       </c>
       <c r="D10" t="n">
-        <v>1.84</v>
+        <v>11.36</v>
       </c>
       <c r="E10" t="n">
-        <v>0.58</v>
+        <v>6.65</v>
       </c>
       <c r="F10" t="n">
-        <v>1.54</v>
+        <v>21.23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.98</v>
+        <v>18.86</v>
       </c>
       <c r="I10" t="n">
-        <v>0.93</v>
+        <v>18.94</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.41</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.31</v>
+        <v>22.76</v>
       </c>
       <c r="C11" t="n">
-        <v>0.26</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.57</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>2.99</v>
+        <v>22.14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.87</v>
+        <v>6.47</v>
       </c>
       <c r="G11" t="n">
-        <v>2.44</v>
+        <v>18.38</v>
       </c>
       <c r="H11" t="n">
-        <v>1.43</v>
+        <v>8.17</v>
       </c>
       <c r="I11" t="n">
-        <v>1.48</v>
+        <v>27</v>
       </c>
       <c r="J11" t="n">
-        <v>2.41</v>
+        <v>16.29</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
